--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Learn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei_Bertosh\Documents\Dot-.Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7078D3-6255-4409-B0FB-3D7AA2F307BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6DC39-091B-4D9B-8024-B2CAFB63AE75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{578659E9-2AB3-4352-9560-71E88AAE4DE9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{578659E9-2AB3-4352-9560-71E88AAE4DE9}"/>
   </bookViews>
   <sheets>
     <sheet name=".NET Development" sheetId="1" r:id="rId1"/>
+    <sheet name="Core" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>What is .NET? What is CLR?</t>
   </si>
@@ -255,6 +256,39 @@
       <t xml:space="preserve"> - Код, создаваемый компилятором при компиляции исходного кода. Впоследствии CLR компилирует IL в машинные команды</t>
     </r>
   </si>
+  <si>
+    <t>Just-In-Time (JIT)</t>
+  </si>
+  <si>
+    <t>Ahead-Of-Time (AOT)</t>
+  </si>
+  <si>
+    <t>.Net Native and Core RT</t>
+  </si>
+  <si>
+    <t>компиляция в промежуточный код (LI) и перевод в бинарный код на лету</t>
+  </si>
+  <si>
+    <t>CoreCLR (default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">компиляция в бинарный код сразу. В основном в UWP. Сокращается время старта </t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Framework-depended Deployments (FDD)</t>
+  </si>
+  <si>
+    <t>Self-contained deployments (SCD)</t>
+  </si>
+  <si>
+    <t>включает в себя все необходимые библиотеки (Dll) + CoreCLR</t>
+  </si>
+  <si>
+    <t>Зависимый от framework, может не включать все библиотеки (ссылается на установленный framework (Global Assembly Cash - GAC))</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -317,17 +351,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036E117-8ECA-4152-B3C2-88BB7A76878E}">
   <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -657,10 +697,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -668,94 +708,94 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -937,4 +977,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2E0A70-ED58-4611-B274-149A37271B7D}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="219.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Interview.xlsx
+++ b/Interview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei_Bertosh\Documents\Dot-.Net\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6DC39-091B-4D9B-8024-B2CAFB63AE75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BB52B8-532C-42E0-91D4-42142685D906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{578659E9-2AB3-4352-9560-71E88AAE4DE9}"/>
+    <workbookView xWindow="3735" yWindow="1770" windowWidth="20445" windowHeight="11385" activeTab="1" xr2:uid="{578659E9-2AB3-4352-9560-71E88AAE4DE9}"/>
   </bookViews>
   <sheets>
     <sheet name=".NET Development" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>What is .NET? What is CLR?</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Зависимый от framework, может не включать все библиотеки (ссылается на установленный framework (Global Assembly Cash - GAC))</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -358,16 +361,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,7 +700,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -708,67 +711,67 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -776,25 +779,25 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
@@ -984,7 +987,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,116 +998,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
